--- a/BOM Bioreactor.xlsx
+++ b/BOM Bioreactor.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pkris\Desktop\Manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156A5C5C-810D-477B-B051-7BA2FDD1D1D1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7D0F18-08ED-450E-AF85-0764521B088E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Basic BOM" sheetId="3" r:id="rId1"/>
+    <sheet name="Minimum costs + materials" sheetId="4" r:id="rId2"/>
+    <sheet name="Our costs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <t>Tusk Direct</t>
   </si>
@@ -272,6 +274,54 @@
   </si>
   <si>
     <t>As required</t>
+  </si>
+  <si>
+    <t>84805K32</t>
+  </si>
+  <si>
+    <t>Polycarbonate (Base plate)</t>
+  </si>
+  <si>
+    <t>8975K215</t>
+  </si>
+  <si>
+    <t>Aluminum (Back plate)</t>
+  </si>
+  <si>
+    <t>9083K46</t>
+  </si>
+  <si>
+    <t>Grip and grip holders</t>
+  </si>
+  <si>
+    <t>8974K28</t>
+  </si>
+  <si>
+    <t>Load cell placeholder</t>
+  </si>
+  <si>
+    <t>Polycarbonate (blocks under grips)</t>
+  </si>
+  <si>
+    <t>1749K549</t>
+  </si>
+  <si>
+    <t>9008K46</t>
+  </si>
+  <si>
+    <t>Pulley base</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit Cost</t>
+  </si>
+  <si>
+    <t>Total cost</t>
+  </si>
+  <si>
+    <t>Machining costs</t>
   </si>
 </sst>
 </file>
@@ -302,19 +352,38 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -323,13 +392,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -613,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7EF32A8-5BFA-4FFF-B711-46ACACF5AC29}">
   <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,4 +1335,689 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId30"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD6F15F-C522-4A48-8F96-CE9D559D6A52}">
+  <dimension ref="B1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1966</v>
+      </c>
+      <c r="H2">
+        <f>F2*G2</f>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <v>720</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H14" si="0">F3*G3</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2">
+        <v>210</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="2">
+        <v>229</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>43.92</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="2">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>49.679999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>80.64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>209.85</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>209.85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2">
+        <v>22.95</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>117.81</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>117.81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.97</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20.38</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20.98</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H15" s="2">
+        <f>SUM(H2:H14)</f>
+        <v>5010.1800000000012</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{5991046B-EDC6-42BF-91A8-2AE9289D0B1E}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{A3159A17-8174-45DF-A097-75E4FD9731A5}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{C947502D-AD3C-4D01-89A9-B9DBB2F23FCE}"/>
+    <hyperlink ref="E7" r:id="rId4" xr:uid="{946AAFFF-60F1-438D-B694-0C7A0416F5B5}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{A9DF0FD6-BFBE-4D85-8423-A17453D50FF4}"/>
+    <hyperlink ref="E9" r:id="rId6" tooltip="Close" display="https://www.mcmaster.com/84805K32" xr:uid="{527611C9-D734-4820-8E45-AE7B7348A06B}"/>
+    <hyperlink ref="E10" r:id="rId7" tooltip="Close" display="https://www.mcmaster.com/8975K215" xr:uid="{60053360-7213-4778-9F9F-0EC4C4FCFB16}"/>
+    <hyperlink ref="E11" r:id="rId8" tooltip="Close" display="https://www.mcmaster.com/9083K46" xr:uid="{A9D65130-DB42-4BE6-81F9-9959C08157A4}"/>
+    <hyperlink ref="E12" r:id="rId9" display="https://www.mcmaster.com/8974K28" xr:uid="{D683E0B0-7668-4B06-B226-A9B5672BE1C9}"/>
+    <hyperlink ref="E13" r:id="rId10" display="https://www.mcmaster.com/1749K549" xr:uid="{E973A42E-4F95-4761-8C07-3D90C00B7BC3}"/>
+    <hyperlink ref="E14" r:id="rId11" display="https://www.mcmaster.com/9008K46" xr:uid="{D0A4AC26-841B-4F89-BBB2-463A9364C23C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId12"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F96A72-7A26-4BE8-AB2B-E4B899A30526}">
+  <dimension ref="B3:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3">
+        <f>8550/2</f>
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1966</v>
+      </c>
+      <c r="H4" s="2">
+        <f>F4*G4</f>
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>720</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" ref="H5:H17" si="0">F5*G5</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="2">
+        <v>4</v>
+      </c>
+      <c r="G6" s="2">
+        <v>210</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2">
+        <v>4</v>
+      </c>
+      <c r="G7" s="2">
+        <v>229</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2">
+        <v>10.98</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>43.92</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="2">
+        <v>6</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>49.679999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="2">
+        <v>16</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.04</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>80.64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>192.8</v>
+      </c>
+      <c r="H11" s="2">
+        <f>F11*G11</f>
+        <v>771.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>223.4</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>893.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10.8</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <v>755</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="2">
+        <v>550</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>220</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <f>SUM(H3:H17)</f>
+        <v>12094.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{67040850-4C0C-4F37-A56C-4CCC2D0B35F8}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{22F48AC3-42E1-45F6-99E9-CA687DFB22E2}"/>
+    <hyperlink ref="E8" r:id="rId3" xr:uid="{840EE5C0-07A4-49F4-8CCB-24A9681889E2}"/>
+    <hyperlink ref="E9" r:id="rId4" xr:uid="{46D79E24-0B5B-4642-AB77-3319D5CC1724}"/>
+    <hyperlink ref="E10" r:id="rId5" xr:uid="{8EAD2E0F-2240-4121-8185-76E0E4C61C73}"/>
+    <hyperlink ref="E11" r:id="rId6" xr:uid="{8FFDF53F-A06E-4F8C-92E5-2D7B949ECB61}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{754B7EEC-6090-412A-BE57-0ACE212DD58D}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{C56F3293-6050-4B7C-92DD-ACA05B76998A}"/>
+    <hyperlink ref="E13" r:id="rId9" xr:uid="{0761761C-97DD-4234-A039-C3E4DFC3C047}"/>
+    <hyperlink ref="E15" r:id="rId10" display="Link" xr:uid="{5B7387D2-8F41-4454-A228-EA4EE2777AEF}"/>
+    <hyperlink ref="E16" r:id="rId11" xr:uid="{31107F91-4FC5-42C1-837B-24BA219F2D8E}"/>
+    <hyperlink ref="E17" r:id="rId12" xr:uid="{7EDA96C9-6360-4C68-A491-3A93A8726186}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>